--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.089847</v>
+        <v>26.56908266666666</v>
       </c>
       <c r="H2">
-        <v>60.269541</v>
+        <v>79.70724799999999</v>
       </c>
       <c r="I2">
-        <v>0.8908882414095812</v>
+        <v>0.7506383589294218</v>
       </c>
       <c r="J2">
-        <v>0.8908882414095813</v>
+        <v>0.7506383589294219</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N2">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q2">
-        <v>42.58144190546566</v>
+        <v>59.27863459203555</v>
       </c>
       <c r="R2">
-        <v>383.232977149191</v>
+        <v>533.5077113283199</v>
       </c>
       <c r="S2">
-        <v>0.01566855310652362</v>
+        <v>0.01199614196692286</v>
       </c>
       <c r="T2">
-        <v>0.01566855310652362</v>
+        <v>0.01199614196692286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.089847</v>
+        <v>26.56908266666666</v>
       </c>
       <c r="H3">
-        <v>60.269541</v>
+        <v>79.70724799999999</v>
       </c>
       <c r="I3">
-        <v>0.8908882414095812</v>
+        <v>0.7506383589294218</v>
       </c>
       <c r="J3">
-        <v>0.8908882414095813</v>
+        <v>0.7506383589294219</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q3">
-        <v>458.427386024573</v>
+        <v>606.2761511300106</v>
       </c>
       <c r="R3">
-        <v>4125.846474221156</v>
+        <v>5456.485360170095</v>
       </c>
       <c r="S3">
-        <v>0.1686860172409719</v>
+        <v>0.1226913344102625</v>
       </c>
       <c r="T3">
-        <v>0.1686860172409719</v>
+        <v>0.1226913344102625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.089847</v>
+        <v>26.56908266666666</v>
       </c>
       <c r="H4">
-        <v>60.269541</v>
+        <v>79.70724799999999</v>
       </c>
       <c r="I4">
-        <v>0.8908882414095812</v>
+        <v>0.7506383589294218</v>
       </c>
       <c r="J4">
-        <v>0.8908882414095813</v>
+        <v>0.7506383589294219</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N4">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O4">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P4">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q4">
-        <v>676.8577230756039</v>
+        <v>1541.584716496471</v>
       </c>
       <c r="R4">
-        <v>6091.719507680435</v>
+        <v>13874.26244846824</v>
       </c>
       <c r="S4">
-        <v>0.2490611098401878</v>
+        <v>0.3119685404429819</v>
       </c>
       <c r="T4">
-        <v>0.2490611098401878</v>
+        <v>0.311968540442982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.089847</v>
+        <v>26.56908266666666</v>
       </c>
       <c r="H5">
-        <v>60.269541</v>
+        <v>79.70724799999999</v>
       </c>
       <c r="I5">
-        <v>0.8908882414095812</v>
+        <v>0.7506383589294218</v>
       </c>
       <c r="J5">
-        <v>0.8908882414095813</v>
+        <v>0.7506383589294219</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N5">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O5">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P5">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q5">
-        <v>239.9289376955963</v>
+        <v>403.0354573151341</v>
       </c>
       <c r="R5">
-        <v>2159.360439260367</v>
+        <v>3627.319115836207</v>
       </c>
       <c r="S5">
-        <v>0.08828586195886211</v>
+        <v>0.0815617734269747</v>
       </c>
       <c r="T5">
-        <v>0.08828586195886211</v>
+        <v>0.0815617734269747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.089847</v>
+        <v>26.56908266666666</v>
       </c>
       <c r="H6">
-        <v>60.269541</v>
+        <v>79.70724799999999</v>
       </c>
       <c r="I6">
-        <v>0.8908882414095812</v>
+        <v>0.7506383589294218</v>
       </c>
       <c r="J6">
-        <v>0.8908882414095813</v>
+        <v>0.7506383589294219</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N6">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q6">
-        <v>1003.31548676274</v>
+        <v>1099.085660458522</v>
       </c>
       <c r="R6">
-        <v>9029.83938086466</v>
+        <v>9891.770944126702</v>
       </c>
       <c r="S6">
-        <v>0.3691866992630359</v>
+        <v>0.2224205686822798</v>
       </c>
       <c r="T6">
-        <v>0.369186699263036</v>
+        <v>0.2224205686822798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.524991</v>
       </c>
       <c r="I7">
-        <v>0.007760276600511317</v>
+        <v>0.004944072121179194</v>
       </c>
       <c r="J7">
-        <v>0.007760276600511319</v>
+        <v>0.004944072121179195</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N7">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q7">
-        <v>0.3709149496823333</v>
+        <v>0.3904381399933333</v>
       </c>
       <c r="R7">
-        <v>3.338234547141</v>
+        <v>3.51394325994</v>
       </c>
       <c r="S7">
-        <v>0.0001364843539118199</v>
+        <v>7.901247032587049E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001364843539118199</v>
+        <v>7.90124703258705E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.524991</v>
       </c>
       <c r="I8">
-        <v>0.007760276600511317</v>
+        <v>0.004944072121179194</v>
       </c>
       <c r="J8">
-        <v>0.007760276600511319</v>
+        <v>0.004944072121179195</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q8">
         <v>3.993231868422999</v>
@@ -948,10 +948,10 @@
         <v>35.93908681580699</v>
       </c>
       <c r="S8">
-        <v>0.001469376394908252</v>
+        <v>0.0008081052596794975</v>
       </c>
       <c r="T8">
-        <v>0.001469376394908252</v>
+        <v>0.0008081052596794975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.524991</v>
       </c>
       <c r="I9">
-        <v>0.007760276600511317</v>
+        <v>0.004944072121179194</v>
       </c>
       <c r="J9">
-        <v>0.007760276600511319</v>
+        <v>0.004944072121179195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N9">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O9">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P9">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q9">
-        <v>5.895917025403999</v>
+        <v>10.15363247641166</v>
       </c>
       <c r="R9">
-        <v>53.06325322863599</v>
+        <v>91.38269228770498</v>
       </c>
       <c r="S9">
-        <v>0.002169501193249672</v>
+        <v>0.002054777703725282</v>
       </c>
       <c r="T9">
-        <v>0.002169501193249672</v>
+        <v>0.002054777703725282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.524991</v>
       </c>
       <c r="I10">
-        <v>0.007760276600511317</v>
+        <v>0.004944072121179194</v>
       </c>
       <c r="J10">
-        <v>0.007760276600511319</v>
+        <v>0.004944072121179195</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N10">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O10">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P10">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q10">
-        <v>2.089953413279666</v>
+        <v>2.654589050312333</v>
       </c>
       <c r="R10">
-        <v>18.809580719517</v>
+        <v>23.891301452811</v>
       </c>
       <c r="S10">
-        <v>0.0007690332825936898</v>
+        <v>0.0005372058133684514</v>
       </c>
       <c r="T10">
-        <v>0.0007690332825936899</v>
+        <v>0.0005372058133684515</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.524991</v>
       </c>
       <c r="I11">
-        <v>0.007760276600511317</v>
+        <v>0.004944072121179194</v>
       </c>
       <c r="J11">
-        <v>0.007760276600511319</v>
+        <v>0.004944072121179195</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N11">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q11">
-        <v>8.73959867574</v>
+        <v>7.239116823726999</v>
       </c>
       <c r="R11">
-        <v>78.65638808166</v>
+        <v>65.15205141354299</v>
       </c>
       <c r="S11">
-        <v>0.003215881375847884</v>
+        <v>0.001464970874080093</v>
       </c>
       <c r="T11">
-        <v>0.003215881375847885</v>
+        <v>0.001464970874080093</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4735023333333333</v>
+        <v>5.094400666666666</v>
       </c>
       <c r="H12">
-        <v>1.420507</v>
+        <v>15.283202</v>
       </c>
       <c r="I12">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="J12">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N12">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q12">
-        <v>1.003612028450778</v>
+        <v>11.36618525274222</v>
       </c>
       <c r="R12">
-        <v>9.032508256057</v>
+        <v>102.29566727468</v>
       </c>
       <c r="S12">
-        <v>0.0003692958167325108</v>
+        <v>0.002300160468482859</v>
       </c>
       <c r="T12">
-        <v>0.0003692958167325109</v>
+        <v>0.002300160468482859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4735023333333333</v>
+        <v>5.094400666666666</v>
       </c>
       <c r="H13">
-        <v>1.420507</v>
+        <v>15.283202</v>
       </c>
       <c r="I13">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="J13">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q13">
-        <v>10.80478298050433</v>
+        <v>116.2484105021726</v>
       </c>
       <c r="R13">
-        <v>97.24304682453899</v>
+        <v>1046.235694519554</v>
       </c>
       <c r="S13">
-        <v>0.003975800451059041</v>
+        <v>0.02352504313587131</v>
       </c>
       <c r="T13">
-        <v>0.003975800451059041</v>
+        <v>0.02352504313587131</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4735023333333333</v>
+        <v>5.094400666666666</v>
       </c>
       <c r="H14">
-        <v>1.420507</v>
+        <v>15.283202</v>
       </c>
       <c r="I14">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="J14">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N14">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O14">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P14">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q14">
-        <v>15.95301901557466</v>
+        <v>295.5860503718344</v>
       </c>
       <c r="R14">
-        <v>143.577171140172</v>
+        <v>2660.27445334651</v>
       </c>
       <c r="S14">
-        <v>0.005870179929788342</v>
+        <v>0.05981737346188722</v>
       </c>
       <c r="T14">
-        <v>0.005870179929788342</v>
+        <v>0.05981737346188722</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4735023333333333</v>
+        <v>5.094400666666666</v>
       </c>
       <c r="H15">
-        <v>1.420507</v>
+        <v>15.283202</v>
       </c>
       <c r="I15">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="J15">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N15">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O15">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P15">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q15">
-        <v>5.654941614689888</v>
+        <v>77.27869750702688</v>
       </c>
       <c r="R15">
-        <v>50.894474532209</v>
+        <v>695.5082775632419</v>
       </c>
       <c r="S15">
-        <v>0.002080830264056554</v>
+        <v>0.01563879182935392</v>
       </c>
       <c r="T15">
-        <v>0.002080830264056554</v>
+        <v>0.01563879182935392</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4735023333333333</v>
+        <v>5.094400666666666</v>
       </c>
       <c r="H16">
-        <v>1.420507</v>
+        <v>15.283202</v>
       </c>
       <c r="I16">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="J16">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N16">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q16">
-        <v>23.64737889998</v>
+        <v>210.7405359684606</v>
       </c>
       <c r="R16">
-        <v>212.82641009982</v>
+        <v>1896.664823716146</v>
       </c>
       <c r="S16">
-        <v>0.008701448225896351</v>
+        <v>0.04264729451111091</v>
       </c>
       <c r="T16">
-        <v>0.008701448225896352</v>
+        <v>0.04264729451111092</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.005337333333333334</v>
+        <v>0.05498833333333333</v>
       </c>
       <c r="H17">
-        <v>0.016012</v>
+        <v>0.164965</v>
       </c>
       <c r="I17">
-        <v>0.0002366851030348848</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="J17">
-        <v>0.0002366851030348849</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N17">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q17">
-        <v>0.01131274664577778</v>
+        <v>0.1226852036777778</v>
       </c>
       <c r="R17">
-        <v>0.101814719812</v>
+        <v>1.1041668331</v>
       </c>
       <c r="S17">
-        <v>4.162714170025888E-06</v>
+        <v>2.482764879265973E-05</v>
       </c>
       <c r="T17">
-        <v>4.162714170025888E-06</v>
+        <v>2.482764879265973E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.005337333333333334</v>
+        <v>0.05498833333333333</v>
       </c>
       <c r="H18">
-        <v>0.016012</v>
+        <v>0.164965</v>
       </c>
       <c r="I18">
-        <v>0.0002366851030348848</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="J18">
-        <v>0.0002366851030348849</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>68.456577</v>
       </c>
       <c r="O18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q18">
-        <v>0.1217918567693333</v>
+        <v>1.254771024978333</v>
       </c>
       <c r="R18">
-        <v>1.096126710924</v>
+        <v>11.292939224805</v>
       </c>
       <c r="S18">
-        <v>4.481534890173533E-05</v>
+        <v>0.0002539264180967451</v>
       </c>
       <c r="T18">
-        <v>4.481534890173533E-05</v>
+        <v>0.0002539264180967451</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.005337333333333334</v>
+        <v>0.05498833333333333</v>
       </c>
       <c r="H19">
-        <v>0.016012</v>
+        <v>0.164965</v>
       </c>
       <c r="I19">
-        <v>0.0002366851030348848</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="J19">
-        <v>0.0002366851030348849</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N19">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O19">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P19">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q19">
-        <v>0.1798229367946667</v>
+        <v>3.190519421230555</v>
       </c>
       <c r="R19">
-        <v>1.618406431152</v>
+        <v>28.714674791075</v>
       </c>
       <c r="S19">
-        <v>6.616885452572281E-05</v>
+        <v>0.0006456613616138964</v>
       </c>
       <c r="T19">
-        <v>6.616885452572281E-05</v>
+        <v>0.0006456613616138966</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.005337333333333334</v>
+        <v>0.05498833333333333</v>
       </c>
       <c r="H20">
-        <v>0.016012</v>
+        <v>0.164965</v>
       </c>
       <c r="I20">
-        <v>0.0002366851030348848</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="J20">
-        <v>0.0002366851030348849</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N20">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O20">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P20">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q20">
-        <v>0.0637426814048889</v>
+        <v>0.834136742696111</v>
       </c>
       <c r="R20">
-        <v>0.5736841326440001</v>
+        <v>7.507230684265</v>
       </c>
       <c r="S20">
-        <v>2.345518479533966E-05</v>
+        <v>0.0001688031928210704</v>
       </c>
       <c r="T20">
-        <v>2.345518479533966E-05</v>
+        <v>0.0001688031928210704</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.005337333333333334</v>
+        <v>0.05498833333333333</v>
       </c>
       <c r="H21">
-        <v>0.016012</v>
+        <v>0.164965</v>
       </c>
       <c r="I21">
-        <v>0.0002366851030348848</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="J21">
-        <v>0.0002366851030348849</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N21">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q21">
-        <v>0.26655400568</v>
+        <v>2.274707388938333</v>
       </c>
       <c r="R21">
-        <v>2.398986051120001</v>
+        <v>20.472366500445</v>
       </c>
       <c r="S21">
-        <v>9.808300064206117E-05</v>
+        <v>0.0004603296442084199</v>
       </c>
       <c r="T21">
-        <v>9.808300064206118E-05</v>
+        <v>0.0004603296442084199</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.806672333333333</v>
+        <v>3.501848333333333</v>
       </c>
       <c r="H22">
-        <v>5.420017</v>
+        <v>10.505545</v>
       </c>
       <c r="I22">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715995</v>
       </c>
       <c r="J22">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715996</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N22">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O22">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P22">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q22">
-        <v>3.829332946340777</v>
+        <v>7.813020507811111</v>
       </c>
       <c r="R22">
-        <v>34.463996517067</v>
+        <v>70.3171845703</v>
       </c>
       <c r="S22">
-        <v>0.001409067047694304</v>
+        <v>0.001581111033464568</v>
       </c>
       <c r="T22">
-        <v>0.001409067047694304</v>
+        <v>0.001581111033464568</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.806672333333333</v>
+        <v>3.501848333333333</v>
       </c>
       <c r="H23">
-        <v>5.420017</v>
+        <v>10.505545</v>
       </c>
       <c r="I23">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715995</v>
       </c>
       <c r="J23">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715996</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>68.456577</v>
       </c>
       <c r="O23">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P23">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q23">
-        <v>41.22620123353433</v>
+        <v>79.90818335771833</v>
       </c>
       <c r="R23">
-        <v>371.035811101809</v>
+        <v>719.1736502194649</v>
       </c>
       <c r="S23">
-        <v>0.01516986965453015</v>
+        <v>0.01617091754010954</v>
       </c>
       <c r="T23">
-        <v>0.01516986965453015</v>
+        <v>0.01617091754010954</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.806672333333333</v>
+        <v>3.501848333333333</v>
       </c>
       <c r="H24">
-        <v>5.420017</v>
+        <v>10.505545</v>
       </c>
       <c r="I24">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715995</v>
       </c>
       <c r="J24">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715996</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N24">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O24">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P24">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q24">
-        <v>60.86955873201465</v>
+        <v>203.1833743709972</v>
       </c>
       <c r="R24">
-        <v>547.8260285881319</v>
+        <v>1828.650369338975</v>
       </c>
       <c r="S24">
-        <v>0.02239797129652414</v>
+        <v>0.04111796132025618</v>
       </c>
       <c r="T24">
-        <v>0.02239797129652414</v>
+        <v>0.04111796132025619</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.806672333333333</v>
+        <v>3.501848333333333</v>
       </c>
       <c r="H25">
-        <v>5.420017</v>
+        <v>10.505545</v>
       </c>
       <c r="I25">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715995</v>
       </c>
       <c r="J25">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715996</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N25">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O25">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P25">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q25">
-        <v>21.57671851361989</v>
+        <v>53.12072916404944</v>
       </c>
       <c r="R25">
-        <v>194.190466622579</v>
+        <v>478.086562476445</v>
       </c>
       <c r="S25">
-        <v>0.007939514134953939</v>
+        <v>0.01074997446928398</v>
       </c>
       <c r="T25">
-        <v>0.007939514134953937</v>
+        <v>0.01074997446928399</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.806672333333333</v>
+        <v>3.501848333333333</v>
       </c>
       <c r="H26">
-        <v>5.420017</v>
+        <v>10.505545</v>
       </c>
       <c r="I26">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715995</v>
       </c>
       <c r="J26">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715996</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N26">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O26">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P26">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q26">
-        <v>90.22778180137999</v>
+        <v>144.8612786731983</v>
       </c>
       <c r="R26">
-        <v>812.05003621242</v>
+        <v>1303.751508058785</v>
       </c>
       <c r="S26">
-        <v>0.03320082006563718</v>
+        <v>0.02931539291404568</v>
       </c>
       <c r="T26">
-        <v>0.03320082006563718</v>
+        <v>0.02931539291404568</v>
       </c>
     </row>
   </sheetData>
